--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb2-Ephb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb2-Ephb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.969508</v>
+        <v>37.98277566666666</v>
       </c>
       <c r="H2">
-        <v>116.908524</v>
+        <v>113.948327</v>
       </c>
       <c r="I2">
-        <v>0.688733638790647</v>
+        <v>0.697850645410475</v>
       </c>
       <c r="J2">
-        <v>0.6887336387906469</v>
+        <v>0.6978506454104751</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.814284333333333</v>
+        <v>4.066173333333333</v>
       </c>
       <c r="N2">
-        <v>8.442852999999999</v>
+        <v>12.19852</v>
       </c>
       <c r="O2">
-        <v>0.7633363087964763</v>
+        <v>0.8070107842953054</v>
       </c>
       <c r="P2">
-        <v>0.7633363087964762</v>
+        <v>0.8070107842953055</v>
       </c>
       <c r="Q2">
-        <v>109.671275842108</v>
+        <v>154.4445495417822</v>
       </c>
       <c r="R2">
-        <v>987.0414825789719</v>
+        <v>1390.00094587604</v>
       </c>
       <c r="S2">
-        <v>0.525735393578418</v>
+        <v>0.5631729966736925</v>
       </c>
       <c r="T2">
-        <v>0.5257353935784179</v>
+        <v>0.5631729966736927</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.969508</v>
+        <v>37.98277566666666</v>
       </c>
       <c r="H3">
-        <v>116.908524</v>
+        <v>113.948327</v>
       </c>
       <c r="I3">
-        <v>0.688733638790647</v>
+        <v>0.697850645410475</v>
       </c>
       <c r="J3">
-        <v>0.6887336387906469</v>
+        <v>0.6978506454104751</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.5442279999999999</v>
       </c>
       <c r="O3">
-        <v>0.04920481176963387</v>
+        <v>0.03600419273120554</v>
       </c>
       <c r="P3">
-        <v>0.04920481176963386</v>
+        <v>0.03600419273120554</v>
       </c>
       <c r="Q3">
-        <v>7.069432466607998</v>
+        <v>6.890430011839554</v>
       </c>
       <c r="R3">
-        <v>63.62489219947199</v>
+        <v>62.01387010655599</v>
       </c>
       <c r="S3">
-        <v>0.03388900905610879</v>
+        <v>0.02512554913495492</v>
       </c>
       <c r="T3">
-        <v>0.03388900905610878</v>
+        <v>0.02512554913495493</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.969508</v>
+        <v>37.98277566666666</v>
       </c>
       <c r="H4">
-        <v>116.908524</v>
+        <v>113.948327</v>
       </c>
       <c r="I4">
-        <v>0.688733638790647</v>
+        <v>0.697850645410475</v>
       </c>
       <c r="J4">
-        <v>0.6887336387906469</v>
+        <v>0.6978506454104751</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6911273333333333</v>
+        <v>0.7909786666666667</v>
       </c>
       <c r="N4">
-        <v>2.073382</v>
+        <v>2.372936</v>
       </c>
       <c r="O4">
-        <v>0.1874588794338899</v>
+        <v>0.156985022973489</v>
       </c>
       <c r="P4">
-        <v>0.1874588794338899</v>
+        <v>0.156985022973489</v>
       </c>
       <c r="Q4">
-        <v>26.932892145352</v>
+        <v>30.04356525311911</v>
       </c>
       <c r="R4">
-        <v>242.396029308168</v>
+        <v>270.392087278072</v>
       </c>
       <c r="S4">
-        <v>0.1291092361561202</v>
+        <v>0.1095520996018276</v>
       </c>
       <c r="T4">
-        <v>0.1291092361561201</v>
+        <v>0.1095520996018276</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>29.057191</v>
       </c>
       <c r="I5">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542351</v>
       </c>
       <c r="J5">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542352</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.814284333333333</v>
+        <v>4.066173333333333</v>
       </c>
       <c r="N5">
-        <v>8.442852999999999</v>
+        <v>12.19852</v>
       </c>
       <c r="O5">
-        <v>0.7633363087964763</v>
+        <v>0.8070107842953054</v>
       </c>
       <c r="P5">
-        <v>0.7633363087964762</v>
+        <v>0.8070107842953055</v>
       </c>
       <c r="Q5">
-        <v>27.25839913399144</v>
+        <v>39.38385839525777</v>
       </c>
       <c r="R5">
-        <v>245.325592205923</v>
+        <v>354.45472555732</v>
       </c>
       <c r="S5">
-        <v>0.1306696314690302</v>
+        <v>0.1436109310353442</v>
       </c>
       <c r="T5">
-        <v>0.1306696314690301</v>
+        <v>0.1436109310353443</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>29.057191</v>
       </c>
       <c r="I6">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542351</v>
       </c>
       <c r="J6">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542352</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -812,10 +812,10 @@
         <v>0.5442279999999999</v>
       </c>
       <c r="O6">
-        <v>0.04920481176963387</v>
+        <v>0.03600419273120554</v>
       </c>
       <c r="P6">
-        <v>0.04920481176963386</v>
+        <v>0.03600419273120554</v>
       </c>
       <c r="Q6">
         <v>1.757081882616444</v>
@@ -824,10 +824,10 @@
         <v>15.813736943548</v>
       </c>
       <c r="S6">
-        <v>0.008422990687523203</v>
+        <v>0.006407096088337218</v>
       </c>
       <c r="T6">
-        <v>0.008422990687523202</v>
+        <v>0.006407096088337219</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>29.057191</v>
       </c>
       <c r="I7">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542351</v>
       </c>
       <c r="J7">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542352</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6911273333333333</v>
+        <v>0.7909786666666667</v>
       </c>
       <c r="N7">
-        <v>2.073382</v>
+        <v>2.372936</v>
       </c>
       <c r="O7">
-        <v>0.1874588794338899</v>
+        <v>0.156985022973489</v>
       </c>
       <c r="P7">
-        <v>0.1874588794338899</v>
+        <v>0.156985022973489</v>
       </c>
       <c r="Q7">
-        <v>6.694072976662444</v>
+        <v>7.66120606475289</v>
       </c>
       <c r="R7">
-        <v>60.24665678996201</v>
+        <v>68.95085458277602</v>
       </c>
       <c r="S7">
-        <v>0.03208963389917137</v>
+        <v>0.02793613883055368</v>
       </c>
       <c r="T7">
-        <v>0.03208963389917137</v>
+        <v>0.02793613883055368</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6067633333333333</v>
+        <v>0.5676613333333332</v>
       </c>
       <c r="H8">
-        <v>1.82029</v>
+        <v>1.702984</v>
       </c>
       <c r="I8">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="J8">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.814284333333333</v>
+        <v>4.066173333333333</v>
       </c>
       <c r="N8">
-        <v>8.442852999999999</v>
+        <v>12.19852</v>
       </c>
       <c r="O8">
-        <v>0.7633363087964763</v>
+        <v>0.8070107842953054</v>
       </c>
       <c r="P8">
-        <v>0.7633363087964762</v>
+        <v>0.8070107842953055</v>
       </c>
       <c r="Q8">
-        <v>1.707604543041111</v>
+        <v>2.308209375964444</v>
       </c>
       <c r="R8">
-        <v>15.36844088737</v>
+        <v>20.77388438368</v>
       </c>
       <c r="S8">
-        <v>0.008185809270647012</v>
+        <v>0.008416750186839966</v>
       </c>
       <c r="T8">
-        <v>0.008185809270647009</v>
+        <v>0.008416750186839968</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6067633333333333</v>
+        <v>0.5676613333333332</v>
       </c>
       <c r="H9">
-        <v>1.82029</v>
+        <v>1.702984</v>
       </c>
       <c r="I9">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="J9">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -998,22 +998,22 @@
         <v>0.5442279999999999</v>
       </c>
       <c r="O9">
-        <v>0.04920481176963387</v>
+        <v>0.03600419273120554</v>
       </c>
       <c r="P9">
-        <v>0.04920481176963386</v>
+        <v>0.03600419273120554</v>
       </c>
       <c r="Q9">
-        <v>0.1100725317911111</v>
+        <v>0.1029790640391111</v>
       </c>
       <c r="R9">
-        <v>0.9906527861199999</v>
+        <v>0.9268115763519998</v>
       </c>
       <c r="S9">
-        <v>0.0005276589095825405</v>
+        <v>0.0003755071205919686</v>
       </c>
       <c r="T9">
-        <v>0.0005276589095825404</v>
+        <v>0.0003755071205919687</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6067633333333333</v>
+        <v>0.5676613333333332</v>
       </c>
       <c r="H10">
-        <v>1.82029</v>
+        <v>1.702984</v>
       </c>
       <c r="I10">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="J10">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6911273333333333</v>
+        <v>0.7909786666666667</v>
       </c>
       <c r="N10">
-        <v>2.073382</v>
+        <v>2.372936</v>
       </c>
       <c r="O10">
-        <v>0.1874588794338899</v>
+        <v>0.156985022973489</v>
       </c>
       <c r="P10">
-        <v>0.1874588794338899</v>
+        <v>0.156985022973489</v>
       </c>
       <c r="Q10">
-        <v>0.4193507245311111</v>
+        <v>0.4490080045582222</v>
       </c>
       <c r="R10">
-        <v>3.77415652078</v>
+        <v>4.041072041024</v>
       </c>
       <c r="S10">
-        <v>0.002010257622298131</v>
+        <v>0.001637281368670895</v>
       </c>
       <c r="T10">
-        <v>0.002010257622298131</v>
+        <v>0.001637281368670895</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.840641000000001</v>
+        <v>5.823095333333334</v>
       </c>
       <c r="H11">
-        <v>20.521923</v>
+        <v>17.469286</v>
       </c>
       <c r="I11">
-        <v>0.1208991288160603</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="J11">
-        <v>0.1208991288160602</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.814284333333333</v>
+        <v>4.066173333333333</v>
       </c>
       <c r="N11">
-        <v>8.442852999999999</v>
+        <v>12.19852</v>
       </c>
       <c r="O11">
-        <v>0.7633363087964763</v>
+        <v>0.8070107842953054</v>
       </c>
       <c r="P11">
-        <v>0.7633363087964762</v>
+        <v>0.8070107842953055</v>
       </c>
       <c r="Q11">
-        <v>19.25150879625767</v>
+        <v>23.67771496185777</v>
       </c>
       <c r="R11">
-        <v>173.263579166319</v>
+        <v>213.09943465672</v>
       </c>
       <c r="S11">
-        <v>0.09228669472716114</v>
+        <v>0.0863393996681477</v>
       </c>
       <c r="T11">
-        <v>0.0922866947271611</v>
+        <v>0.08633939966814771</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.840641000000001</v>
+        <v>5.823095333333334</v>
       </c>
       <c r="H12">
-        <v>20.521923</v>
+        <v>17.469286</v>
       </c>
       <c r="I12">
-        <v>0.1208991288160603</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="J12">
-        <v>0.1208991288160602</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1184,22 +1184,22 @@
         <v>0.5442279999999999</v>
       </c>
       <c r="O12">
-        <v>0.04920481176963387</v>
+        <v>0.03600419273120554</v>
       </c>
       <c r="P12">
-        <v>0.04920481176963386</v>
+        <v>0.03600419273120554</v>
       </c>
       <c r="Q12">
-        <v>1.240956123382667</v>
+        <v>1.056363842356444</v>
       </c>
       <c r="R12">
-        <v>11.168605110444</v>
+        <v>9.507274581208</v>
       </c>
       <c r="S12">
-        <v>0.005948818876506963</v>
+        <v>0.003851968829218355</v>
       </c>
       <c r="T12">
-        <v>0.005948818876506961</v>
+        <v>0.003851968829218355</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.840641000000001</v>
+        <v>5.823095333333334</v>
       </c>
       <c r="H13">
-        <v>20.521923</v>
+        <v>17.469286</v>
       </c>
       <c r="I13">
-        <v>0.1208991288160603</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="J13">
-        <v>0.1208991288160602</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.6911273333333333</v>
+        <v>0.7909786666666667</v>
       </c>
       <c r="N13">
-        <v>2.073382</v>
+        <v>2.372936</v>
       </c>
       <c r="O13">
-        <v>0.1874588794338899</v>
+        <v>0.156985022973489</v>
       </c>
       <c r="P13">
-        <v>0.1874588794338899</v>
+        <v>0.156985022973489</v>
       </c>
       <c r="Q13">
-        <v>4.727753972620667</v>
+        <v>4.605944182632889</v>
       </c>
       <c r="R13">
-        <v>42.549785753586</v>
+        <v>41.453497643696</v>
       </c>
       <c r="S13">
-        <v>0.02266361521239216</v>
+        <v>0.01679530547074037</v>
       </c>
       <c r="T13">
-        <v>0.02266361521239216</v>
+        <v>0.01679530547074037</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4787493333333333</v>
+        <v>0.3689676666666666</v>
       </c>
       <c r="H14">
-        <v>1.436248</v>
+        <v>1.106903</v>
       </c>
       <c r="I14">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080511</v>
       </c>
       <c r="J14">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080512</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.814284333333333</v>
+        <v>4.066173333333333</v>
       </c>
       <c r="N14">
-        <v>8.442852999999999</v>
+        <v>12.19852</v>
       </c>
       <c r="O14">
-        <v>0.7633363087964763</v>
+        <v>0.8070107842953054</v>
       </c>
       <c r="P14">
-        <v>0.7633363087964762</v>
+        <v>0.8070107842953055</v>
       </c>
       <c r="Q14">
-        <v>1.347336748393778</v>
+        <v>1.500286487062222</v>
       </c>
       <c r="R14">
-        <v>12.126030735544</v>
+        <v>13.50257838356</v>
       </c>
       <c r="S14">
-        <v>0.006458779751219985</v>
+        <v>0.005470706731280928</v>
       </c>
       <c r="T14">
-        <v>0.006458779751219984</v>
+        <v>0.00547070673128093</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4787493333333333</v>
+        <v>0.3689676666666666</v>
       </c>
       <c r="H15">
-        <v>1.436248</v>
+        <v>1.106903</v>
       </c>
       <c r="I15">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080511</v>
       </c>
       <c r="J15">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080512</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1370,22 +1370,22 @@
         <v>0.5442279999999999</v>
       </c>
       <c r="O15">
-        <v>0.04920481176963387</v>
+        <v>0.03600419273120554</v>
       </c>
       <c r="P15">
-        <v>0.04920481176963386</v>
+        <v>0.03600419273120554</v>
       </c>
       <c r="Q15">
-        <v>0.08684959739377776</v>
+        <v>0.06693417843155554</v>
       </c>
       <c r="R15">
-        <v>0.7816463765439999</v>
+        <v>0.6024076058839999</v>
       </c>
       <c r="S15">
-        <v>0.0004163342399123791</v>
+        <v>0.0002440715581030778</v>
       </c>
       <c r="T15">
-        <v>0.0004163342399123791</v>
+        <v>0.0002440715581030779</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4787493333333333</v>
+        <v>0.3689676666666666</v>
       </c>
       <c r="H16">
-        <v>1.436248</v>
+        <v>1.106903</v>
       </c>
       <c r="I16">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080511</v>
       </c>
       <c r="J16">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080512</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6911273333333333</v>
+        <v>0.7909786666666667</v>
       </c>
       <c r="N16">
-        <v>2.073382</v>
+        <v>2.372936</v>
       </c>
       <c r="O16">
-        <v>0.1874588794338899</v>
+        <v>0.156985022973489</v>
       </c>
       <c r="P16">
-        <v>0.1874588794338899</v>
+        <v>0.156985022973489</v>
       </c>
       <c r="Q16">
-        <v>0.3308767500817777</v>
+        <v>0.2918455530231111</v>
       </c>
       <c r="R16">
-        <v>2.977890750736</v>
+        <v>2.626609977208</v>
       </c>
       <c r="S16">
-        <v>0.001586136543908084</v>
+        <v>0.001064197701696505</v>
       </c>
       <c r="T16">
-        <v>0.001586136543908084</v>
+        <v>0.001064197701696505</v>
       </c>
     </row>
   </sheetData>
